--- a/tests/TestFiles/main/mainconfig.xlsx
+++ b/tests/TestFiles/main/mainconfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\laghida\Documents\GitHub\JADE\tests\TestFiles\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5183184B-312C-471A-865E-AF2582930EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589AFCAA-DE72-481A-9712-8140E6464CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
   <si>
     <t>Default Benchmarks</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>dummy</t>
+  </si>
+  <si>
+    <t>MPI executable prefix</t>
   </si>
 </sst>
 </file>
@@ -826,9 +829,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A1A2DE-3EB8-4AD4-9CF1-023800AFF144}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -930,17 +933,23 @@
     </row>
     <row r="13" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="19"/>
+    </row>
+    <row r="14" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B14" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:2" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1274,7 +1283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EEB530-2BB1-44BD-96B5-AB98331CD0CC}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
